--- a/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
+++ b/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/root/2023/data2rdf/tests/csv_pipeline_test/input/data/DX56_D_FZ2_WR00_43.TXT</t>
+          <t>/home/bue/data2rdf/tests/csv_pipeline_test/input/data/DX56_D_FZ2_WR00_43.TXT</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/root/2023/data2rdf/tests/csv_pipeline_test/input/data/DX56_D_FZ2_WR00_43.TXT</t>
+          <t>/home/bue/data2rdf/tests/csv_pipeline_test/input/data/DX56_D_FZ2_WR00_43.TXT</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f8fd235eccb0ce1f092032a9fa6112e2</t>
+          <t>b619034f-dc70-4acb-9eaf-fb22a1c0861f</t>
         </is>
       </c>
     </row>

--- a/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
+++ b/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>b619034f-dc70-4acb-9eaf-fb22a1c0861f</t>
+          <t>68d9c032-079e-42b3-8c3b-2ae097673716</t>
         </is>
       </c>
     </row>
@@ -534,90 +534,102 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Prüfzeit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>s</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.9023598269999999</v>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>Prüfzeit</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>Standardkraft</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.576537916</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Standardkraft</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>Traversenweg absolut</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>mm</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.261094396</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mm</t>
+          <t>Traversenweg absolut</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>mm.1</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7674214070000001</v>
+          <t>Standardweg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mm.1</t>
+          <t>Standardweg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mm.2</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.950183725</v>
+          <t>Breitenänderung</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mm.2</t>
+          <t>Breitenänderung</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>mm.3</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.035807567</v>
+          <t>Dehnung</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mm</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mm.3</t>
+          <t>Dehnung</t>
         </is>
       </c>
     </row>
@@ -660,7 +672,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Pr�finstitut</t>
+          <t>Prüfinstitut</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -751,7 +763,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Pr�fnorm</t>
+          <t>Prüfnorm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -790,7 +802,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Pr�fer</t>
+          <t>Prüfer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -816,7 +828,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Messl�nge Standardweg</t>
+          <t>Messlänge Standardweg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -826,14 +838,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mm'</t>
+          <t>mm</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Versuchsl�nge</t>
+          <t>Versuchslänge</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -884,7 +896,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pr�fgeschwindigkeit</t>
+          <t>Prüfgeschwindigkeit</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -928,7 +940,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>�C</t>
+          <t>°C</t>
         </is>
       </c>
     </row>

--- a/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
+++ b/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>68d9c032-079e-42b3-8c3b-2ae097673716</t>
+          <t>86491bcc-2465-45f8-a025-afe4dc59f7c9</t>
         </is>
       </c>
     </row>

--- a/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
+++ b/tests/csv_pipeline_test/output/DX56_D_FZ2_WR00_43.generic.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.test2.de</t>
+          <t>https://www.example.org/</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>86491bcc-2465-45f8-a025-afe4dc59f7c9</t>
+          <t>4430481c-38f0-4d6f-a107-f7de0d4a95a0</t>
         </is>
       </c>
     </row>
